--- a/bh3/543083165589526074_2021-07-03_12-00-03.xlsx
+++ b/bh3/543083165589526074_2021-07-03_12-00-03.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-07-07 21:21:27</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44384.88989583333</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -620,10 +634,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-07-07 21:21:19</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44384.88980324074</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -684,10 +696,8 @@
           <t>4851748548</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-07-07 20:26:40</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44384.85185185185</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -751,10 +761,8 @@
           <t>4851748548</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-07-07 20:07:23</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44384.83846064815</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -818,10 +826,8 @@
           <t>4851748548</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-07-07 18:54:15</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44384.78767361111</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -885,10 +891,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-07-07 13:48:06</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44384.57506944444</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -964,10 +968,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-07-07 09:52:38</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44384.41155092593</v>
       </c>
       <c r="I8" t="n">
         <v>2</v>
@@ -1070,10 +1072,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-07-07 09:52:25</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44384.41140046297</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -1161,10 +1161,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-07-07 06:25:09</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44384.26746527778</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
@@ -1236,10 +1234,8 @@
           <t>4851757461</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-07-06 14:25:59</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44383.60137731482</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1303,10 +1299,8 @@
           <t>4849259175</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-07-06 13:46:33</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44383.57399305556</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1370,10 +1364,8 @@
           <t>4853117180</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-07-06 13:27:57</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44383.56107638889</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1442,10 +1434,8 @@
           <t>4849259175</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-07-06 13:23:55</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44383.55827546296</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1548,10 +1538,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-07-06 09:56:53</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44383.41450231482</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1635,10 +1623,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-07-06 09:51:13</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44383.41056712963</v>
       </c>
       <c r="I16" t="n">
         <v>1</v>
@@ -1710,10 +1696,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-07-06 09:50:13</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44383.40987268519</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -1785,10 +1769,8 @@
           <t>4851757461</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-07-06 09:13:58</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44383.38469907407</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1860,10 +1842,8 @@
           <t>4851757461</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-07-06 09:11:00</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44383.38263888889</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1927,10 +1907,8 @@
           <t>4851757461</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-07-06 09:05:17</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44383.37866898148</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2002,10 +1980,8 @@
           <t>4851749089</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-07-06 08:51:58</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44383.36942129629</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2077,10 +2053,8 @@
           <t>4851749089</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-07-06 08:48:22</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44383.3669212963</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2144,10 +2118,8 @@
           <t>4851748548</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-07-06 08:47:53</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44383.36658564815</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2211,10 +2183,8 @@
           <t>4851757461</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-07-06 08:47:27</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44383.36628472222</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2305,10 +2275,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-07-06 07:27:00</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44383.31041666667</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2384,10 +2352,8 @@
           <t>4849742657</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-07-05 21:46:23</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44382.90721064815</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2455,10 +2421,8 @@
           <t>4849633380</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-07-05 21:30:04</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44382.89587962963</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2530,10 +2494,8 @@
           <t>4849259175</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-07-05 20:30:27</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44382.85447916666</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2601,10 +2563,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-07-05 17:39:52</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44382.73601851852</v>
       </c>
       <c r="I29" t="n">
         <v>5</v>
@@ -2668,10 +2628,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:58:23</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44382.66554398148</v>
       </c>
       <c r="I30" t="n">
         <v>1</v>
@@ -2735,10 +2693,8 @@
           <t>4847682825</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:54:38</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44382.66293981481</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2807,10 +2763,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:33:57</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44382.64857638889</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2886,10 +2840,8 @@
           <t>4842453421</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:21:56</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44382.64023148148</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2957,10 +2909,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-07-05 13:20:14</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44382.55571759259</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3024,10 +2974,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-07-05 13:05:04</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44382.54518518518</v>
       </c>
       <c r="I35" t="n">
         <v>2</v>
@@ -3099,10 +3047,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-07-05 11:58:13</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44382.49876157408</v>
       </c>
       <c r="I36" t="n">
         <v>7</v>
@@ -3200,10 +3146,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-07-05 11:06:06</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44382.46256944445</v>
       </c>
       <c r="I37" t="n">
         <v>6</v>
@@ -3271,10 +3215,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-07-05 10:48:20</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44382.45023148148</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3350,10 +3292,8 @@
           <t>4842453421</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-07-05 10:44:07</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44382.44730324074</v>
       </c>
       <c r="I39" t="n">
         <v>2</v>
@@ -3417,10 +3357,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-07-05 10:18:54</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44382.42979166667</v>
       </c>
       <c r="I40" t="n">
         <v>2</v>
@@ -3496,10 +3434,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-07-05 10:10:02</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44382.42363425926</v>
       </c>
       <c r="I41" t="n">
         <v>16</v>
@@ -3594,10 +3530,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-07-05 09:14:17</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44382.38491898148</v>
       </c>
       <c r="I42" t="n">
         <v>6</v>
@@ -3700,10 +3634,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-07-05 09:14:11</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44382.38484953704</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3779,10 +3711,8 @@
           <t>4845782134</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-07-05 09:05:14</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44382.37863425926</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3858,10 +3788,8 @@
           <t>4842453421</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-07-05 09:04:05</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44382.37783564815</v>
       </c>
       <c r="I45" t="n">
         <v>2</v>
@@ -3955,10 +3883,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-07-05 08:28:49</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44382.35334490741</v>
       </c>
       <c r="I46" t="n">
         <v>1</v>
@@ -4020,10 +3946,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-07-05 08:28:44</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44382.35328703704</v>
       </c>
       <c r="I47" t="n">
         <v>1</v>
@@ -4110,10 +4034,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-07-05 08:28:26</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44382.3530787037</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -4173,10 +4095,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-07-05 08:28:18</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44382.35298611111</v>
       </c>
       <c r="I49" t="n">
         <v>1</v>
@@ -4236,10 +4156,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-07-05 08:10:16</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44382.34046296297</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4299,10 +4217,8 @@
           <t>4845113593</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-07-05 07:58:41</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44382.33241898148</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4362,10 +4278,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-07-05 07:40:52</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44382.3200462963</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4456,10 +4370,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-07-05 07:28:36</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44382.31152777778</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4562,10 +4474,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-07-05 07:28:30</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44382.31145833333</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4641,10 +4551,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-07-05 07:27:54</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44382.31104166667</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4721,10 +4629,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-07-05 07:27:44</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44382.31092592593</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4800,10 +4706,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-07-05 07:27:25</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44382.31070601852</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4879,10 +4783,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-07-05 07:26:16</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44382.30990740741</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4966,10 +4868,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-07-05 07:18:49</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44382.3047337963</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -5041,10 +4941,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-07-05 07:12:05</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44382.30005787037</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -5112,10 +5010,8 @@
           <t>4842453421</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-07-05 06:12:05</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44382.2583912037</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -5191,10 +5087,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-07-05 05:24:43</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44382.22549768518</v>
       </c>
       <c r="I62" t="n">
         <v>2</v>
@@ -5262,10 +5156,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-07-05 03:05:08</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44382.12856481481</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5333,10 +5225,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-07-05 02:08:01</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44382.08890046296</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5400,10 +5290,8 @@
           <t>4845113593</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-07-05 01:59:11</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44382.0827662037</v>
       </c>
       <c r="I65" t="n">
         <v>4</v>
@@ -5480,10 +5368,8 @@
           <t>4842453421</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-07-05 01:03:51</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44382.04434027777</v>
       </c>
       <c r="I66" t="n">
         <v>3</v>
@@ -5551,10 +5437,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-07-05 00:33:21</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44382.02315972222</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5622,10 +5506,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-07-05 00:19:44</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44382.01370370371</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5701,10 +5583,8 @@
           <t>4844729893</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-07-05 00:18:42</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44382.01298611111</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5776,10 +5656,8 @@
           <t>4844524587</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-07-04 23:43:53</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44381.98880787037</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5847,10 +5725,8 @@
           <t>4843642281</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-07-04 23:31:07</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44381.97994212963</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5914,10 +5790,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-07-04 23:25:15</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44381.97586805555</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5993,10 +5867,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-07-04 22:28:52</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44381.93671296296</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -6060,10 +5932,8 @@
           <t>4843642281</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-07-04 22:09:50</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44381.92349537037</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -6131,10 +6001,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-07-04 22:03:37</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44381.91917824074</v>
       </c>
       <c r="I75" t="n">
         <v>2</v>
@@ -6194,10 +6062,8 @@
           <t>4843691574</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-07-04 21:39:10</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44381.90219907407</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6261,10 +6127,8 @@
           <t>4843642281</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-07-04 21:31:53</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44381.89714120371</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6328,10 +6192,8 @@
           <t>4834748424</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-07-04 20:15:21</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44381.84399305555</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6399,10 +6261,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-07-04 20:05:08</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44381.83689814815</v>
       </c>
       <c r="I79" t="n">
         <v>11</v>
@@ -6470,10 +6330,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-07-04 19:56:18</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44381.83076388889</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6545,10 +6403,8 @@
           <t>4842652995</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-07-04 18:47:38</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44381.7830787037</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6612,10 +6468,8 @@
           <t>4835379029</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-07-04 18:45:17</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44381.78144675926</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6679,10 +6533,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-07-04 18:42:55</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44381.77980324074</v>
       </c>
       <c r="I83" t="n">
         <v>5</v>
@@ -6742,10 +6594,8 @@
           <t>4842453421</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-07-04 18:14:19</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44381.75994212963</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6821,10 +6671,8 @@
           <t>4837308687</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-07-04 18:11:18</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44381.75784722222</v>
       </c>
       <c r="I85" t="n">
         <v>1</v>
@@ -6900,10 +6748,8 @@
           <t>4842432553</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-07-04 18:11:08</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44381.75773148148</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6971,10 +6817,8 @@
           <t>4837308687</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-07-04 18:10:49</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44381.75751157408</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -7051,10 +6895,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-07-04 17:51:51</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44381.74434027778</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -7118,10 +6960,8 @@
           <t>4842316461</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-07-04 17:50:34</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44381.74344907407</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -7193,10 +7033,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-07-04 16:38:35</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44381.69346064814</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7272,10 +7110,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-07-04 15:21:50</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44381.64016203704</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7351,10 +7187,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-07-04 15:03:29</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44381.62741898148</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7422,10 +7256,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-07-04 14:57:30</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44381.62326388889</v>
       </c>
       <c r="I93" t="n">
         <v>12</v>
@@ -7489,10 +7321,8 @@
           <t>4834748424</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-07-04 14:40:42</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44381.61159722223</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7564,10 +7394,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-07-04 14:12:30</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44381.59201388889</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7631,10 +7459,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-07-04 13:44:50</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44381.57280092593</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7706,10 +7532,8 @@
           <t>4840870143</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-07-04 13:07:26</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44381.5468287037</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7773,10 +7597,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-07-04 12:57:46</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44381.54011574074</v>
       </c>
       <c r="I98" t="n">
         <v>3</v>
@@ -7847,10 +7669,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-07-04 12:56:11</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44381.5390162037</v>
       </c>
       <c r="I99" t="n">
         <v>7</v>
@@ -7922,10 +7742,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-07-04 12:54:51</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44381.53809027778</v>
       </c>
       <c r="I100" t="n">
         <v>4</v>
@@ -8002,10 +7820,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-07-04 12:33:34</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44381.52331018518</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -8073,10 +7889,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-07-04 12:14:36</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44381.51013888889</v>
       </c>
       <c r="I102" t="n">
         <v>1</v>
@@ -8148,10 +7962,8 @@
           <t>4840423022</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-07-04 11:53:31</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44381.49549768519</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -8246,10 +8058,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-07-04 11:49:12</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44381.4925</v>
       </c>
       <c r="I104" t="n">
         <v>5</v>
@@ -8325,10 +8135,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-07-04 11:48:43</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44381.49216435185</v>
       </c>
       <c r="I105" t="n">
         <v>6</v>
@@ -8404,10 +8212,8 @@
           <t>4840225594</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-07-04 11:17:02</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44381.47016203704</v>
       </c>
       <c r="I106" t="n">
         <v>1</v>
@@ -8475,10 +8281,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-07-04 11:01:10</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44381.45914351852</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8542,10 +8346,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-07-04 11:00:59</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44381.45901620371</v>
       </c>
       <c r="I108" t="n">
         <v>3</v>
@@ -8613,10 +8415,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-07-04 10:52:11</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44381.45290509259</v>
       </c>
       <c r="I109" t="n">
         <v>6</v>
@@ -8692,10 +8492,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-07-04 10:26:08</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44381.43481481481</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8767,10 +8565,8 @@
           <t>4835113776</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-07-04 10:25:35</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44381.43443287037</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8846,10 +8642,8 @@
           <t>4839954322</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-07-04 10:23:13</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44381.43278935185</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8925,10 +8719,8 @@
           <t>4839926826</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-07-04 10:17:38</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44381.42891203704</v>
       </c>
       <c r="I113" t="n">
         <v>2</v>
@@ -9004,10 +8796,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-07-04 10:11:38</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44381.42474537037</v>
       </c>
       <c r="I114" t="n">
         <v>6</v>
@@ -9075,10 +8865,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-07-04 10:10:08</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44381.4237037037</v>
       </c>
       <c r="I115" t="n">
         <v>5</v>
@@ -9164,10 +8952,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-07-04 10:07:01</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44381.42153935185</v>
       </c>
       <c r="I116" t="n">
         <v>6</v>
@@ -9229,10 +9015,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-07-04 10:06:56</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44381.42148148148</v>
       </c>
       <c r="I117" t="n">
         <v>7</v>
@@ -9319,10 +9103,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-07-04 10:06:44</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44381.42134259259</v>
       </c>
       <c r="I118" t="n">
         <v>3</v>
@@ -9382,10 +9164,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-07-04 10:06:40</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44381.4212962963</v>
       </c>
       <c r="I119" t="n">
         <v>2</v>
@@ -9445,10 +9225,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-07-04 10:06:35</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44381.42123842592</v>
       </c>
       <c r="I120" t="n">
         <v>3</v>
@@ -9508,10 +9286,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-07-04 09:37:32</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44381.40106481482</v>
       </c>
       <c r="I121" t="n">
         <v>2</v>
@@ -9587,10 +9363,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-07-04 09:08:24</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44381.38083333334</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9663,10 +9437,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-07-04 09:04:29</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44381.37811342593</v>
       </c>
       <c r="I123" t="n">
         <v>1</v>
@@ -9742,10 +9514,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-07-04 09:02:12</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44381.37652777778</v>
       </c>
       <c r="I124" t="n">
         <v>2</v>
@@ -9813,10 +9583,8 @@
           <t>4839472695</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-07-04 08:19:23</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44381.34679398148</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9876,10 +9644,8 @@
           <t>4839385472</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-07-04 07:42:02</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44381.32085648148</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9943,10 +9709,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-07-04 07:39:10</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44381.31886574074</v>
       </c>
       <c r="I127" t="n">
         <v>11</v>
@@ -10030,10 +9794,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-07-04 07:26:32</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44381.31009259259</v>
       </c>
       <c r="I128" t="n">
         <v>3</v>
@@ -10105,10 +9867,8 @@
           <t>4839236140</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-07-04 05:45:49</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44381.24015046296</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -10176,10 +9936,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-07-04 04:52:14</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44381.20293981482</v>
       </c>
       <c r="I130" t="n">
         <v>7</v>
@@ -10245,10 +10003,8 @@
           <t>4834774763</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-07-04 04:44:22</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44381.19747685185</v>
       </c>
       <c r="I131" t="n">
         <v>2</v>
@@ -10324,10 +10080,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-07-04 01:50:16</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44381.07657407408</v>
       </c>
       <c r="I132" t="n">
         <v>10</v>
@@ -10395,10 +10149,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-07-04 01:26:47</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44381.06026620371</v>
       </c>
       <c r="I133" t="n">
         <v>3</v>
@@ -10466,10 +10218,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-07-04 01:18:03</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44381.05420138889</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10545,10 +10295,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-07-04 01:16:24</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44381.05305555555</v>
       </c>
       <c r="I135" t="n">
         <v>1</v>
@@ -10612,10 +10360,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-07-04 01:15:04</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44381.05212962963</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10679,10 +10425,8 @@
           <t>4838759982</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-07-04 01:08:45</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44381.04774305555</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10746,10 +10490,8 @@
           <t>4838699689</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-07-04 00:54:05</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44381.03755787037</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10817,10 +10559,8 @@
           <t>4838699056</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-07-04 00:53:40</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44381.03726851852</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10888,10 +10628,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-07-04 00:53:30</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44381.03715277778</v>
       </c>
       <c r="I140" t="n">
         <v>1</v>
@@ -10951,10 +10689,8 @@
           <t>4835379029</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-07-04 00:53:20</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44381.03703703704</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -11022,10 +10758,8 @@
           <t>4835254284</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-07-04 00:53:13</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44381.03695601852</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -11093,10 +10827,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-07-04 00:36:48</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44381.02555555556</v>
       </c>
       <c r="I143" t="n">
         <v>3</v>
@@ -11156,10 +10888,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-07-04 00:36:45</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44381.02552083333</v>
       </c>
       <c r="I144" t="n">
         <v>6</v>
@@ -11219,10 +10949,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-07-04 00:28:22</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44381.01969907407</v>
       </c>
       <c r="I145" t="n">
         <v>9</v>
@@ -11290,10 +11018,8 @@
           <t>4838486206</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-07-04 00:11:20</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44381.00787037037</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11361,10 +11087,8 @@
           <t>4834963178</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-07-03 23:59:54</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44380.99993055555</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11432,10 +11156,8 @@
           <t>4834963178</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-07-03 23:59:10</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44380.9994212963</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11512,10 +11234,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-07-03 23:49:21</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44380.99260416667</v>
       </c>
       <c r="I149" t="n">
         <v>3</v>
@@ -11579,10 +11299,8 @@
           <t>4834963178</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-07-03 23:39:08</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44380.98550925926</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11650,10 +11368,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-07-03 23:23:28</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44380.97462962963</v>
       </c>
       <c r="I151" t="n">
         <v>2</v>
@@ -11729,10 +11445,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-07-03 23:21:48</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44380.97347222222</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11808,10 +11522,8 @@
           <t>4838094799</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-07-03 23:07:56</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44380.9638425926</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11875,10 +11587,8 @@
           <t>4837519232</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-07-03 23:06:45</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44380.96302083333</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11946,10 +11656,8 @@
           <t>4835379029</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-07-03 22:38:10</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44380.9431712963</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -12021,10 +11729,8 @@
           <t>4837845258</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-07-03 22:29:43</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44380.93730324074</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -12088,10 +11794,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-07-03 22:26:43</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44380.93521990741</v>
       </c>
       <c r="I157" t="n">
         <v>2</v>
@@ -12167,10 +11871,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-07-03 22:23:39</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44380.93309027778</v>
       </c>
       <c r="I158" t="n">
         <v>1</v>
@@ -12246,10 +11948,8 @@
           <t>4837632026</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-07-03 21:59:02</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44380.91599537037</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -12313,10 +12013,8 @@
           <t>4837630184</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-07-03 21:58:12</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44380.91541666666</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12392,10 +12090,8 @@
           <t>4837613466</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-07-03 21:55:27</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44380.91350694445</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12463,10 +12159,8 @@
           <t>4837519232</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-07-03 21:53:52</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44380.91240740741</v>
       </c>
       <c r="I162" t="n">
         <v>1</v>
@@ -12530,10 +12224,8 @@
           <t>4837519232</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-07-03 21:48:23</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44380.90859953704</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12602,10 +12294,8 @@
           <t>4837519232</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-07-03 21:48:03</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44380.90836805556</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12674,10 +12364,8 @@
           <t>4837519232</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-07-03 21:46:10</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44380.90706018519</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12745,10 +12433,8 @@
           <t>4837550660</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-07-03 21:45:02</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44380.90627314815</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12824,10 +12510,8 @@
           <t>4837538679</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-07-03 21:44:10</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44380.9056712963</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12903,10 +12587,8 @@
           <t>4837519232</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-07-03 21:41:48</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44380.90402777777</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12970,10 +12652,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-07-03 21:14:22</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44380.88497685185</v>
       </c>
       <c r="I169" t="n">
         <v>3</v>
@@ -13037,10 +12717,8 @@
           <t>4837336003</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-07-03 21:11:16</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44380.88282407408</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -13112,10 +12790,8 @@
           <t>4837335583</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-07-03 21:11:06</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44380.88270833333</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -13187,10 +12863,8 @@
           <t>4837335263</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-07-03 21:10:58</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44380.88261574074</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -13262,10 +12936,8 @@
           <t>4837308687</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-07-03 21:08:03</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44380.88059027777</v>
       </c>
       <c r="I173" t="n">
         <v>1</v>
@@ -13333,10 +13005,8 @@
           <t>4837293532</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-07-03 21:05:50</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44380.87905092593</v>
       </c>
       <c r="I174" t="n">
         <v>8</v>
@@ -13404,10 +13074,8 @@
           <t>4837208788</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-07-03 20:53:14</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44380.87030092593</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13483,10 +13151,8 @@
           <t>4837175706</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-07-03 20:47:25</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44380.86626157408</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13554,10 +13220,8 @@
           <t>4837015948</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-07-03 20:19:40</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44380.84699074074</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13625,10 +13289,8 @@
           <t>4834715493</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-07-03 20:18:37</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44380.84626157407</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13696,10 +13358,8 @@
           <t>4836905833</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-07-03 20:02:08</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44380.83481481481</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13771,10 +13431,8 @@
           <t>4836609750</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-07-03 20:00:41</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44380.83380787037</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13846,10 +13504,8 @@
           <t>4835541339</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-07-03 19:55:43</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44380.83035879629</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13913,10 +13569,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-07-03 19:53:13</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44380.82862268519</v>
       </c>
       <c r="I182" t="n">
         <v>6</v>
@@ -13980,10 +13634,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-07-03 19:49:24</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44380.82597222222</v>
       </c>
       <c r="I183" t="n">
         <v>7</v>
@@ -14059,10 +13711,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-07-03 19:35:53</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44380.81658564815</v>
       </c>
       <c r="I184" t="n">
         <v>1</v>
@@ -14123,10 +13773,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-07-03 19:32:19</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44380.81410879629</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -14198,10 +13846,8 @@
           <t>4836642498</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-07-03 19:17:50</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44380.80405092592</v>
       </c>
       <c r="I186" t="n">
         <v>1</v>
@@ -14277,10 +13923,8 @@
           <t>4836625422</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-07-03 19:14:10</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44380.80150462963</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14356,10 +14000,8 @@
           <t>4836614668</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-07-03 19:13:47</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44380.80123842593</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14435,10 +14077,8 @@
           <t>4836609750</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-07-03 19:13:19</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44380.80091435185</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14514,10 +14154,8 @@
           <t>4836611508</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-07-03 19:12:11</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44380.80012731482</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14593,10 +14231,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-07-03 19:09:14</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44380.7980787037</v>
       </c>
       <c r="I191" t="n">
         <v>2</v>
@@ -14672,10 +14308,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-07-03 19:08:56</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44380.79787037037</v>
       </c>
       <c r="I192" t="n">
         <v>6</v>
@@ -14751,10 +14385,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-07-03 19:08:36</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44380.79763888889</v>
       </c>
       <c r="I193" t="n">
         <v>4</v>
@@ -14857,10 +14489,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-07-03 19:08:01</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44380.79723379629</v>
       </c>
       <c r="I194" t="n">
         <v>10</v>
@@ -14936,10 +14566,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-07-03 19:07:27</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44380.79684027778</v>
       </c>
       <c r="I195" t="n">
         <v>4</v>
@@ -15015,10 +14643,8 @@
           <t>4836576267</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-07-03 19:07:06</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44380.79659722222</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -15094,10 +14720,8 @@
           <t>4836568882</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-07-03 19:06:05</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44380.79589120371</v>
       </c>
       <c r="I197" t="n">
         <v>3</v>
@@ -15165,10 +14789,8 @@
           <t>4836568268</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-07-03 19:05:48</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44380.79569444444</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -15236,10 +14858,8 @@
           <t>4834540973</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-07-03 19:02:06</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44380.793125</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -15303,10 +14923,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-07-03 18:52:14</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44380.78627314815</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -15374,10 +14992,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-07-03 18:47:48</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44380.78319444445</v>
       </c>
       <c r="I201" t="n">
         <v>3</v>
@@ -15449,10 +15065,8 @@
           <t>4834556418</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-07-03 18:42:24</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44380.77944444444</v>
       </c>
       <c r="I202" t="n">
         <v>1</v>
@@ -15524,10 +15138,8 @@
           <t>4836333066</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-07-03 18:28:05</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44380.76950231481</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15603,10 +15215,8 @@
           <t>4836298541</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-07-03 18:23:30</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44380.76631944445</v>
       </c>
       <c r="I204" t="n">
         <v>1</v>
@@ -15682,10 +15292,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-07-03 18:22:19</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44380.76549768518</v>
       </c>
       <c r="I205" t="n">
         <v>1</v>
@@ -15757,10 +15365,8 @@
           <t>4834715493</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-07-03 18:22:03</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44380.7653125</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15836,10 +15442,8 @@
           <t>4835541339</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-07-03 18:12:19</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44380.75855324074</v>
       </c>
       <c r="I207" t="n">
         <v>2</v>
@@ -15911,10 +15515,8 @@
           <t>4834748424</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-07-03 18:11:37</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44380.75806712963</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15982,10 +15584,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-07-03 17:56:37</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44380.74765046296</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -16053,10 +15653,8 @@
           <t>4836088782</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-07-03 17:47:58</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44380.74164351852</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -16120,10 +15718,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-07-03 17:39:46</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44380.73594907407</v>
       </c>
       <c r="I211" t="n">
         <v>6</v>
@@ -16192,10 +15788,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-07-03 17:28:44</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44380.72828703704</v>
       </c>
       <c r="I212" t="n">
         <v>9</v>
@@ -16262,10 +15856,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-07-03 17:26:07</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44380.72646990741</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -16341,10 +15933,8 @@
           <t>4835773486</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-07-03 17:23:20</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44380.72453703704</v>
       </c>
       <c r="I214" t="n">
         <v>1</v>
@@ -16420,10 +16010,8 @@
           <t>4834509795</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-07-03 17:19:50</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44380.72210648148</v>
       </c>
       <c r="I215" t="n">
         <v>1</v>
@@ -16499,10 +16087,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-07-03 17:06:05</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44380.71255787037</v>
       </c>
       <c r="I216" t="n">
         <v>1</v>
@@ -16580,10 +16166,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-07-03 17:01:06</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44380.70909722222</v>
       </c>
       <c r="I217" t="n">
         <v>1</v>
@@ -16655,10 +16239,8 @@
           <t>4834715493</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-07-03 16:58:06</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44380.70701388889</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16718,10 +16300,8 @@
           <t>4835795028</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-07-03 16:52:35</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44380.70318287037</v>
       </c>
       <c r="I219" t="n">
         <v>2</v>
@@ -16788,10 +16368,8 @@
           <t>4835773486</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-07-03 16:50:56</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44380.70203703704</v>
       </c>
       <c r="I220" t="n">
         <v>3</v>
@@ -16855,10 +16433,8 @@
           <t>4835724789</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-07-03 16:40:33</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44380.69482638889</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16930,10 +16506,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-07-03 16:37:59</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44380.69304398148</v>
       </c>
       <c r="I222" t="n">
         <v>9</v>
@@ -17001,10 +16575,8 @@
           <t>4834963178</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-07-03 16:37:00</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44380.69236111111</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -17080,10 +16652,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-07-03 16:36:35</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44380.69207175926</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -17156,10 +16726,8 @@
           <t>4835707245</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-07-03 16:36:11</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44380.69179398148</v>
       </c>
       <c r="I225" t="n">
         <v>3</v>
@@ -17235,10 +16803,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-07-03 16:15:05</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44380.67714120371</v>
       </c>
       <c r="I226" t="n">
         <v>16</v>
@@ -17302,10 +16868,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-07-03 16:13:46</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44380.67622685185</v>
       </c>
       <c r="I227" t="n">
         <v>1</v>
@@ -17381,10 +16945,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-07-03 16:07:44</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44380.67203703704</v>
       </c>
       <c r="I228" t="n">
         <v>6</v>
@@ -17448,10 +17010,8 @@
           <t>4835560110</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-07-03 16:05:27</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44380.67045138889</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17527,10 +17087,8 @@
           <t>4835550734</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-07-03 16:04:26</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44380.66974537037</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17606,10 +17164,8 @@
           <t>4835541339</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-07-03 16:02:46</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44380.66858796297</v>
       </c>
       <c r="I231" t="n">
         <v>5</v>
@@ -17673,10 +17229,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-07-03 16:02:39</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44380.66850694444</v>
       </c>
       <c r="I232" t="n">
         <v>41</v>
@@ -17748,10 +17302,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-07-03 16:02:25</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44380.6683449074</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17827,10 +17379,8 @@
           <t>4835521548</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-07-03 15:58:48</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44380.66583333333</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17890,10 +17440,8 @@
           <t>4835491225</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-07-03 15:52:18</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44380.66131944444</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17957,10 +17505,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-07-03 15:47:00</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44380.65763888889</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -18028,10 +17574,8 @@
           <t>4834558717</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-07-03 15:44:30</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44380.65590277778</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -18095,10 +17639,8 @@
           <t>4835379029</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-07-03 15:44:08</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44380.65564814815</v>
       </c>
       <c r="I238" t="n">
         <v>2</v>
@@ -18174,10 +17716,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-07-03 15:43:56</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44380.65550925926</v>
       </c>
       <c r="I239" t="n">
         <v>1</v>
@@ -18237,10 +17777,8 @@
           <t>4835379029</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-07-03 15:28:08</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44380.64453703703</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -18308,10 +17846,8 @@
           <t>4835378412</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-07-03 15:27:45</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44380.64427083333</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -18379,10 +17915,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-07-03 15:27:44</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44380.64425925926</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -18454,10 +17988,8 @@
           <t>4835372412</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-07-03 15:27:08</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44380.6438425926</v>
       </c>
       <c r="I243" t="n">
         <v>1</v>
@@ -18525,10 +18057,8 @@
           <t>4835371662</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-07-03 15:26:37</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44380.6434837963</v>
       </c>
       <c r="I244" t="n">
         <v>1</v>
@@ -18596,10 +18126,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-07-03 15:26:12</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44380.64319444444</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18667,10 +18195,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-07-03 15:25:08</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44380.6424537037</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18738,10 +18264,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-07-03 15:21:06</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44380.63965277778</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18805,10 +18329,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-07-03 15:20:51</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44380.63947916667</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18872,10 +18394,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-07-03 15:19:27</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44380.63850694444</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18939,10 +18459,8 @@
           <t>4835333919</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-07-03 15:18:21</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44380.63774305556</v>
       </c>
       <c r="I250" t="n">
         <v>1</v>
@@ -19006,10 +18524,8 @@
           <t>4834715493</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-07-03 15:13:32</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44380.63439814815</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -19077,10 +18593,8 @@
           <t>4835307371</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-07-03 15:12:27</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44380.63364583333</v>
       </c>
       <c r="I252" t="n">
         <v>2</v>
@@ -19148,10 +18662,8 @@
           <t>4835296590</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-07-03 15:09:43</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44380.63174768518</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -19227,10 +18739,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-07-03 15:07:39</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44380.6303125</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -19306,10 +18816,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-07-03 15:07:03</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44380.62989583334</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -19369,10 +18877,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-07-03 15:03:51</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44380.62767361111</v>
       </c>
       <c r="I256" t="n">
         <v>1</v>
@@ -19440,10 +18946,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-07-03 15:01:56</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44380.62634259259</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19511,10 +19015,8 @@
           <t>4835254284</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-07-03 15:01:29</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44380.62603009259</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19582,10 +19084,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-07-03 14:59:19</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44380.62452546296</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19664,10 +19164,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-07-03 14:55:04</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44380.62157407407</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19731,10 +19229,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-07-03 14:47:30</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44380.61631944445</v>
       </c>
       <c r="I261" t="n">
         <v>5</v>
@@ -19798,10 +19294,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-07-03 14:46:40</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44380.61574074074</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19877,10 +19371,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-07-03 14:46:27</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44380.61559027778</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19956,10 +19448,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-07-03 14:44:02</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44380.61391203704</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -20032,10 +19522,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-07-03 14:40:06</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44380.61118055556</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -20103,10 +19591,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-07-03 14:34:44</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44380.60745370371</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -20174,10 +19660,8 @@
           <t>4834963178</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-07-03 14:32:41</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44380.60603009259</v>
       </c>
       <c r="I267" t="n">
         <v>2</v>
@@ -20241,10 +19725,8 @@
           <t>4835113776</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-07-03 14:30:55</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44380.60480324074</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -20320,10 +19802,8 @@
           <t>4834963178</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-07-03 14:29:08</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44380.60356481482</v>
       </c>
       <c r="I269" t="n">
         <v>8</v>
@@ -20387,10 +19867,8 @@
           <t>4834715493</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-07-03 14:28:13</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44380.60292824074</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20466,10 +19944,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-07-03 14:27:35</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44380.60248842592</v>
       </c>
       <c r="I271" t="n">
         <v>1</v>
@@ -20548,10 +20024,8 @@
           <t>4835083887</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-07-03 14:24:20</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44380.60023148148</v>
       </c>
       <c r="I272" t="n">
         <v>7</v>
@@ -20623,10 +20097,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-07-03 14:24:19</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44380.60021990741</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20686,10 +20158,8 @@
           <t>4835072340</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-07-03 14:21:21</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44380.59815972222</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20757,10 +20227,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-07-03 14:17:18</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44380.59534722222</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20824,10 +20292,8 @@
           <t>4834941946</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-07-03 14:15:55</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44380.59438657408</v>
       </c>
       <c r="I276" t="n">
         <v>1</v>
@@ -20899,10 +20365,8 @@
           <t>4835050665</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-07-03 14:15:33</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44380.59413194445</v>
       </c>
       <c r="I277" t="n">
         <v>9</v>
@@ -20970,10 +20434,8 @@
           <t>4835029748</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-07-03 14:13:28</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44380.59268518518</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -21041,10 +20503,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-07-03 14:08:17</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44380.58908564815</v>
       </c>
       <c r="I279" t="n">
         <v>164</v>
@@ -21116,10 +20576,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-07-03 14:07:13</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44380.58834490741</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -21191,10 +20649,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-07-03 14:06:56</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44380.58814814815</v>
       </c>
       <c r="I281" t="n">
         <v>1</v>
@@ -21258,10 +20714,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-07-03 14:05:41</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44380.58728009259</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -21338,10 +20792,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-07-03 14:05:36</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44380.58722222222</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -21409,10 +20861,8 @@
           <t>4834982756</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-07-03 14:03:02</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44380.58543981481</v>
       </c>
       <c r="I284" t="n">
         <v>1</v>
@@ -21480,10 +20930,8 @@
           <t>4834982769</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-07-03 14:03:02</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44380.58543981481</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21547,10 +20995,8 @@
           <t>4834974463</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-07-03 14:01:43</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44380.58452546296</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -21618,10 +21064,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-07-03 14:01:41</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44380.58450231481</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21685,10 +21129,8 @@
           <t>4834354075</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-07-03 14:01:15</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44380.58420138889</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21758,10 +21200,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-07-03 14:00:24</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44380.58361111111</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21837,10 +21277,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-07-03 14:00:08</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44380.58342592593</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21935,10 +21373,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-07-03 13:59:58</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44380.58331018518</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21998,10 +21434,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-07-03 13:59:39</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44380.58309027777</v>
       </c>
       <c r="I292" t="n">
         <v>3</v>
@@ -22079,10 +21513,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-07-03 13:59:31</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44380.58299768518</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -22142,10 +21574,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-07-03 13:58:45</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44380.58246527778</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -22209,10 +21639,8 @@
           <t>4834963178</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-07-03 13:58:26</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44380.58224537037</v>
       </c>
       <c r="I295" t="n">
         <v>38</v>
@@ -22288,10 +21716,8 @@
           <t>4834715493</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-07-03 13:54:00</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44380.57916666667</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -22367,10 +21793,8 @@
           <t>4834941946</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-07-03 13:53:46</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44380.57900462963</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -22442,10 +21866,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-07-03 13:53:10</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44380.57858796296</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -22509,10 +21931,8 @@
           <t>4834933070</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-07-03 13:52:28</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44380.57810185185</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22584,10 +22004,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-07-03 13:47:35</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44380.57471064815</v>
       </c>
       <c r="I300" t="n">
         <v>2</v>
@@ -22659,10 +22077,8 @@
           <t>4834692848</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-07-03 13:46:58</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44380.5742824074</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22738,10 +22154,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-07-03 13:45:44</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44380.57342592593</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22809,10 +22223,8 @@
           <t>4834407267</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-07-03 13:45:31</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44380.57327546296</v>
       </c>
       <c r="I303" t="n">
         <v>1</v>
@@ -22882,10 +22294,8 @@
           <t>4834879902</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-07-03 13:43:20</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44380.57175925926</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22957,10 +22367,8 @@
           <t>4834885985</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-07-03 13:42:35</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44380.57123842592</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -23032,10 +22440,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-07-03 13:42:31</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44380.57119212963</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -23111,10 +22517,8 @@
           <t>4834877395</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-07-03 13:41:48</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44380.57069444445</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -23190,10 +22594,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-07-03 13:41:17</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44380.57033564815</v>
       </c>
       <c r="I308" t="n">
         <v>4</v>
@@ -23261,10 +22663,8 @@
           <t>4834509795</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-07-03 13:40:20</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44380.56967592592</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -23340,10 +22740,8 @@
           <t>4834715493</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-07-03 13:38:39</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44380.56850694444</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -23411,10 +22809,8 @@
           <t>4834558717</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-07-03 13:38:11</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44380.56818287037</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -23492,10 +22888,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-07-03 13:37:59</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44380.56804398148</v>
       </c>
       <c r="I312" t="n">
         <v>6</v>
@@ -23563,10 +22957,8 @@
           <t>4834540973</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-07-03 13:36:25</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44380.56695601852</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -23630,10 +23022,8 @@
           <t>4834841895</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-07-03 13:34:40</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44380.56574074074</v>
       </c>
       <c r="I314" t="n">
         <v>2</v>
@@ -23701,10 +23091,8 @@
           <t>4834824724</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-07-03 13:32:46</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44380.56442129629</v>
       </c>
       <c r="I315" t="n">
         <v>1</v>
@@ -23780,10 +23168,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-07-03 13:32:30</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44380.56423611111</v>
       </c>
       <c r="I316" t="n">
         <v>1</v>
@@ -23847,10 +23233,8 @@
           <t>4834568516</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-07-03 13:31:53</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44380.56380787037</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -23926,10 +23310,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-07-03 13:30:33</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44380.56288194445</v>
       </c>
       <c r="I318" t="n">
         <v>2</v>
@@ -23997,10 +23379,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-07-03 13:29:29</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44380.56214120371</v>
       </c>
       <c r="I319" t="n">
         <v>4</v>
@@ -24064,10 +23444,8 @@
           <t>4834793815</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-07-03 13:26:52</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44380.56032407407</v>
       </c>
       <c r="I320" t="n">
         <v>3</v>
@@ -24143,10 +23521,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-07-03 13:26:30</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44380.56006944444</v>
       </c>
       <c r="I321" t="n">
         <v>1</v>
@@ -24214,10 +23590,8 @@
           <t>4834774763</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-07-03 13:22:35</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44380.55734953703</v>
       </c>
       <c r="I322" t="n">
         <v>4</v>
@@ -24293,10 +23667,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-07-03 13:21:08</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44380.55634259259</v>
       </c>
       <c r="I323" t="n">
         <v>11</v>
@@ -24372,10 +23744,8 @@
           <t>4834692848</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-07-03 13:20:09</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44380.55565972222</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -24451,10 +23821,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-07-03 13:19:10</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44380.55497685185</v>
       </c>
       <c r="I325" t="n">
         <v>5</v>
@@ -24522,10 +23890,8 @@
           <t>4834748424</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-07-03 13:18:34</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44380.55456018518</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -24593,10 +23959,8 @@
           <t>4834692848</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-07-03 13:17:08</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44380.55356481481</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -24672,10 +24036,8 @@
           <t>4834745420</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-07-03 13:17:00</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44380.55347222222</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24747,10 +24109,8 @@
           <t>4834692848</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-07-03 13:16:45</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44380.55329861111</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24826,10 +24186,8 @@
           <t>4834697810</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-07-03 13:14:58</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44380.55206018518</v>
       </c>
       <c r="I330" t="n">
         <v>1</v>
@@ -24893,10 +24251,8 @@
           <t>4834509795</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-07-03 13:14:54</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44380.55201388889</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24964,10 +24320,8 @@
           <t>4834729571</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-07-03 13:14:39</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44380.55184027777</v>
       </c>
       <c r="I332" t="n">
         <v>1</v>
@@ -25043,10 +24397,8 @@
           <t>4834730662</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-07-03 13:14:24</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44380.55166666667</v>
       </c>
       <c r="I333" t="n">
         <v>5</v>
@@ -25114,10 +24466,8 @@
           <t>4834729018</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-07-03 13:14:22</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44380.55164351852</v>
       </c>
       <c r="I334" t="n">
         <v>2</v>
@@ -25181,10 +24531,8 @@
           <t>4834509795</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-07-03 13:13:57</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44380.55135416667</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -25252,10 +24600,8 @@
           <t>4834727423</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-07-03 13:13:31</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44380.55105324074</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -25319,10 +24665,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-07-03 13:13:00</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44380.55069444444</v>
       </c>
       <c r="I337" t="n">
         <v>1</v>
@@ -25386,10 +24730,8 @@
           <t>4834692848</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-07-03 13:12:57</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44380.55065972222</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -25465,10 +24807,8 @@
           <t>4834407267</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-07-03 13:12:46</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44380.5505324074</v>
       </c>
       <c r="I339" t="n">
         <v>35</v>
@@ -25549,10 +24889,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-07-03 13:11:48</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44380.54986111111</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25624,10 +24962,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-07-03 13:11:45</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44380.54982638889</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25691,10 +25027,8 @@
           <t>4834715493</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-07-03 13:11:29</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44380.5496412037</v>
       </c>
       <c r="I342" t="n">
         <v>3</v>
@@ -25770,10 +25104,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-07-03 13:11:03</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44380.54934027778</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -25837,10 +25169,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-07-03 13:10:36</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44380.54902777778</v>
       </c>
       <c r="I344" t="n">
         <v>1</v>
@@ -25912,10 +25242,8 @@
           <t>4834697810</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-07-03 13:08:32</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44380.54759259259</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -25975,10 +25303,8 @@
           <t>4834692848</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-07-03 13:07:48</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44380.54708333333</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -26054,10 +25380,8 @@
           <t>4834687803</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-07-03 13:07:09</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44380.54663194445</v>
       </c>
       <c r="I347" t="n">
         <v>9</v>
@@ -26121,10 +25445,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-07-03 13:04:45</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44380.54496527778</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -26200,10 +25522,8 @@
           <t>4834659373</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-07-03 13:02:27</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44380.54336805556</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
@@ -26279,10 +25599,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-07-03 13:01:49</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44380.54292824074</v>
       </c>
       <c r="I350" t="n">
         <v>5</v>
@@ -26350,10 +25668,8 @@
           <t>4834509795</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-07-03 13:01:31</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44380.5427199074</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
@@ -26429,10 +25745,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-07-03 13:01:18</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44380.54256944444</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
@@ -26504,10 +25818,8 @@
           <t>4834558717</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-07-03 13:00:51</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44380.54225694444</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -26583,10 +25895,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:59:23</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44380.54123842593</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
@@ -26646,10 +25956,8 @@
           <t>4834558717</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:58:28</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44380.54060185186</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -26713,10 +26021,8 @@
           <t>4834624837</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:56:52</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44380.53949074074</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
@@ -26780,10 +26086,8 @@
           <t>4834558717</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:56:40</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44380.53935185185</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -26859,10 +26163,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:55:18</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44380.53840277778</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
@@ -26930,10 +26232,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:54:09</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44380.53760416667</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -27006,10 +26306,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:53:40</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44380.53726851852</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -27081,10 +26379,8 @@
           <t>4834607753</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:53:22</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44380.53706018518</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -27156,10 +26452,8 @@
           <t>4834612555</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:53:13</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44380.53695601852</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
@@ -27235,10 +26529,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:53:09</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44380.53690972222</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
@@ -27302,10 +26594,8 @@
           <t>4834597512</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:50:43</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44380.5352199074</v>
       </c>
       <c r="I364" t="n">
         <v>1</v>
@@ -27377,10 +26667,8 @@
           <t>4834597042</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:50:29</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44380.53505787037</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -27456,10 +26744,8 @@
           <t>4834591786</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:50:06</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44380.53479166667</v>
       </c>
       <c r="I366" t="n">
         <v>3</v>
@@ -27538,10 +26824,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:48:28</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44380.53365740741</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
@@ -27605,10 +26889,8 @@
           <t>4834557023</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:47:50</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44380.53321759259</v>
       </c>
       <c r="I368" t="n">
         <v>1</v>
@@ -27680,10 +26962,8 @@
           <t>4834558717</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:47:50</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44380.53321759259</v>
       </c>
       <c r="I369" t="n">
         <v>2</v>
@@ -27751,10 +27031,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:47:47</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44380.53318287037</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
@@ -27814,10 +27092,8 @@
           <t>4834558717</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:47:38</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44380.5330787037</v>
       </c>
       <c r="I371" t="n">
         <v>1</v>
@@ -27893,10 +27169,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:47:17</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44380.53283564815</v>
       </c>
       <c r="I372" t="n">
         <v>3</v>
@@ -27960,10 +27234,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:47:14</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44380.53280092592</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
@@ -28031,10 +27303,8 @@
           <t>4834568516</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:46:14</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44380.53210648148</v>
       </c>
       <c r="I374" t="n">
         <v>11</v>
@@ -28102,10 +27372,8 @@
           <t>4834526062</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:45:59</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44380.53193287037</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
@@ -28173,10 +27441,8 @@
           <t>4834558717</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:45:44</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44380.53175925926</v>
       </c>
       <c r="I376" t="n">
         <v>2</v>
@@ -28240,10 +27506,8 @@
           <t>4834540973</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:45:38</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44380.53168981482</v>
       </c>
       <c r="I377" t="n">
         <v>12</v>
@@ -28315,10 +27579,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:45:22</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44380.53150462963</v>
       </c>
       <c r="I378" t="n">
         <v>6</v>
@@ -28386,10 +27648,8 @@
           <t>4834557023</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:44:47</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44380.53109953704</v>
       </c>
       <c r="I379" t="n">
         <v>1</v>
@@ -28457,10 +27717,8 @@
           <t>4834556418</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:44:27</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44380.53086805555</v>
       </c>
       <c r="I380" t="n">
         <v>34</v>
@@ -28528,10 +27786,8 @@
           <t>4834556310</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:44:23</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44380.53082175926</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
@@ -28607,10 +27863,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:44:20</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44380.53078703704</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -28682,10 +27936,8 @@
           <t>4834526062</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:43:42</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44380.53034722222</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
@@ -28753,10 +28005,8 @@
           <t>4834540973</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:43:29</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44380.53019675926</v>
       </c>
       <c r="I384" t="n">
         <v>32</v>
@@ -28820,10 +28070,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:43:15</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44380.53003472222</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
@@ -28900,10 +28148,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:43:10</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44380.52997685185</v>
       </c>
       <c r="I386" t="n">
         <v>67</v>
@@ -28980,10 +28226,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:42:59</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44380.52984953704</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
@@ -29059,10 +28303,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:42:45</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44380.5296875</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
@@ -29131,10 +28373,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:42:39</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44380.52961805555</v>
       </c>
       <c r="I389" t="n">
         <v>9</v>
@@ -29202,10 +28442,8 @@
           <t>4834538940</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:41:30</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44380.52881944444</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
@@ -29265,10 +28503,8 @@
           <t>4834540973</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:41:28</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44380.5287962963</v>
       </c>
       <c r="I391" t="n">
         <v>30</v>
@@ -29344,10 +28580,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:40:49</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44380.5283449074</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
@@ -29412,10 +28646,8 @@
           <t>4834537088</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:40:35</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44380.52818287037</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
@@ -29487,10 +28719,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:40:05</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44380.52783564815</v>
       </c>
       <c r="I394" t="n">
         <v>400</v>
@@ -29566,10 +28796,8 @@
           <t>4834536050</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:40:05</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44380.52783564815</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
@@ -29633,10 +28861,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:40:03</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44380.5278125</v>
       </c>
       <c r="I396" t="n">
         <v>2</v>
@@ -29700,10 +28926,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:39:52</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44380.52768518519</v>
       </c>
       <c r="I397" t="n">
         <v>4</v>
@@ -29771,10 +28995,8 @@
           <t>4834354075</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:39:40</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44380.5275462963</v>
       </c>
       <c r="I398" t="n">
         <v>2</v>
@@ -29850,10 +29072,8 @@
           <t>4834524364</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:39:15</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44380.52725694444</v>
       </c>
       <c r="I399" t="n">
         <v>1</v>
@@ -29917,10 +29137,8 @@
           <t>4834526697</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:39:10</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44380.52719907407</v>
       </c>
       <c r="I400" t="n">
         <v>4</v>
@@ -29984,10 +29202,8 @@
           <t>4834504645</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:39:02</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44380.52710648148</v>
       </c>
       <c r="I401" t="n">
         <v>1</v>
@@ -30059,10 +29275,8 @@
           <t>4834526062</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:38:49</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44380.52695601852</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
@@ -30130,10 +29344,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:38:36</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44380.52680555556</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
@@ -30201,10 +29413,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:38:27</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44380.52670138889</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
@@ -30276,10 +29486,8 @@
           <t>4834521201</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:37:43</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44380.52619212963</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -30347,10 +29555,8 @@
           <t>4834521008</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:37:36</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44380.52611111111</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
@@ -30428,10 +29634,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:37:17</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44380.5258912037</v>
       </c>
       <c r="I407" t="n">
         <v>1</v>
@@ -30499,10 +29703,8 @@
           <t>4834509795</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:37:01</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44380.52570601852</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
@@ -30570,10 +29772,8 @@
           <t>4834512188</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:36:46</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44380.52553240741</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
@@ -30641,10 +29841,8 @@
           <t>4834512147</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:36:44</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44380.52550925926</v>
       </c>
       <c r="I410" t="n">
         <v>2</v>
@@ -30708,10 +29906,8 @@
           <t>4834504645</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:36:19</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44380.52521990741</v>
       </c>
       <c r="I411" t="n">
         <v>1</v>
@@ -30787,10 +29983,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:36:08</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44380.52509259259</v>
       </c>
       <c r="I412" t="n">
         <v>1</v>
@@ -30858,10 +30052,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:35:59</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44380.52498842592</v>
       </c>
       <c r="I413" t="n">
         <v>0</v>
@@ -30929,10 +30121,8 @@
           <t>4834363455</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:34:39</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44380.5240625</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
@@ -31004,10 +30194,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:34:03</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44380.52364583333</v>
       </c>
       <c r="I415" t="n">
         <v>39</v>
@@ -31075,10 +30263,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:33:58</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44380.52358796296</v>
       </c>
       <c r="I416" t="n">
         <v>6</v>
@@ -31146,10 +30332,8 @@
           <t>4834493399</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:33:55</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44380.52355324074</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
@@ -31225,10 +30409,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:33:54</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44380.52354166667</v>
       </c>
       <c r="I418" t="n">
         <v>1</v>
@@ -31296,10 +30478,8 @@
           <t>4834489577</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:33:50</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44380.52349537037</v>
       </c>
       <c r="I419" t="n">
         <v>1</v>
@@ -31359,10 +30539,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:33:46</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44380.52344907408</v>
       </c>
       <c r="I420" t="n">
         <v>199</v>
@@ -31438,10 +30616,8 @@
           <t>4834495379</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:33:09</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44380.52302083333</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
@@ -31518,10 +30694,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:32:31</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44380.52258101852</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
@@ -31598,10 +30772,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:32:27</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44380.52253472222</v>
       </c>
       <c r="I423" t="n">
         <v>4</v>
@@ -31669,10 +30841,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:31:30</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44380.521875</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
@@ -31748,10 +30918,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:30:01</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44380.52084490741</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
@@ -31827,10 +30995,8 @@
           <t>4834467787</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:29:06</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44380.52020833334</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
@@ -31890,10 +31056,8 @@
           <t>4834465890</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:28:03</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44380.51947916667</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
@@ -31960,10 +31124,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:28:02</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44380.5194675926</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
@@ -32031,10 +31193,8 @@
           <t>4834354075</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:28:01</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44380.51945601852</v>
       </c>
       <c r="I429" t="n">
         <v>1</v>
@@ -32102,10 +31262,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:27:37</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44380.51917824074</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
@@ -32181,10 +31339,8 @@
           <t>4834390207</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:26:46</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44380.51858796296</v>
       </c>
       <c r="I431" t="n">
         <v>0</v>
@@ -32248,10 +31404,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:26:42</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44380.51854166666</v>
       </c>
       <c r="I432" t="n">
         <v>3</v>
@@ -32316,10 +31470,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:26:36</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44380.51847222223</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
@@ -32395,10 +31547,8 @@
           <t>4834362750</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:26:10</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44380.51817129629</v>
       </c>
       <c r="I434" t="n">
         <v>1</v>
@@ -32470,10 +31620,8 @@
           <t>4834451917</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:25:55</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44380.51799768519</v>
       </c>
       <c r="I435" t="n">
         <v>1</v>
@@ -32541,10 +31689,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:25:31</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44380.51771990741</v>
       </c>
       <c r="I436" t="n">
         <v>1</v>
@@ -32620,10 +31766,8 @@
           <t>4834450504</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:25:14</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44380.51752314815</v>
       </c>
       <c r="I437" t="n">
         <v>0</v>
@@ -32695,10 +31839,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:24:31</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44380.51702546296</v>
       </c>
       <c r="I438" t="n">
         <v>0</v>
@@ -32774,10 +31916,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:24:27</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44380.51697916666</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
@@ -32841,10 +31981,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:23:59</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44380.51665509259</v>
       </c>
       <c r="I440" t="n">
         <v>0</v>
@@ -32912,10 +32050,8 @@
           <t>4834433378</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:23:56</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44380.51662037037</v>
       </c>
       <c r="I441" t="n">
         <v>13</v>
@@ -32987,10 +32123,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:23:12</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44380.51611111111</v>
       </c>
       <c r="I442" t="n">
         <v>6</v>
@@ -33066,10 +32200,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:22:46</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44380.51581018518</v>
       </c>
       <c r="I443" t="n">
         <v>50</v>
@@ -33141,10 +32273,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:22:37</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44380.51570601852</v>
       </c>
       <c r="I444" t="n">
         <v>9</v>
@@ -33216,10 +32346,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:22:34</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44380.5156712963</v>
       </c>
       <c r="I445" t="n">
         <v>8</v>
@@ -33283,10 +32411,8 @@
           <t>4834424305</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:22:14</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44380.51543981482</v>
       </c>
       <c r="I446" t="n">
         <v>0</v>
@@ -33358,10 +32484,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:21:25</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44380.51487268518</v>
       </c>
       <c r="I447" t="n">
         <v>1</v>
@@ -33429,10 +32553,8 @@
           <t>4834422518</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:21:21</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44380.51482638889</v>
       </c>
       <c r="I448" t="n">
         <v>0</v>
@@ -33496,10 +32618,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:21:08</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44380.51467592592</v>
       </c>
       <c r="I449" t="n">
         <v>0</v>
@@ -33571,10 +32691,8 @@
           <t>4834362750</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:21:00</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44380.51458333333</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
@@ -33638,10 +32756,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:20:54</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44380.51451388889</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
@@ -33701,10 +32817,8 @@
           <t>4834324716</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:20:30</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44380.51423611111</v>
       </c>
       <c r="I452" t="n">
         <v>1</v>
@@ -33772,10 +32886,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:20:08</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44380.51398148148</v>
       </c>
       <c r="I453" t="n">
         <v>4</v>
@@ -33843,10 +32955,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:19:56</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44380.51384259259</v>
       </c>
       <c r="I454" t="n">
         <v>0</v>
@@ -33923,10 +33033,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:19:48</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44380.51375</v>
       </c>
       <c r="I455" t="n">
         <v>0</v>
@@ -34002,10 +33110,8 @@
           <t>4834407267</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:18:45</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44380.51302083334</v>
       </c>
       <c r="I456" t="n">
         <v>1</v>
@@ -34075,10 +33181,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:18:41</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44380.51297453704</v>
       </c>
       <c r="I457" t="n">
         <v>1</v>
@@ -34146,10 +33250,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:18:14</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44380.51266203704</v>
       </c>
       <c r="I458" t="n">
         <v>0</v>
@@ -34209,10 +33311,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:17:49</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44380.51237268518</v>
       </c>
       <c r="I459" t="n">
         <v>0</v>
@@ -34280,10 +33380,8 @@
           <t>4834362750</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:17:47</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44380.51234953704</v>
       </c>
       <c r="I460" t="n">
         <v>2</v>
@@ -34351,10 +33449,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:17:32</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44380.51217592593</v>
       </c>
       <c r="I461" t="n">
         <v>6</v>
@@ -34422,10 +33518,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:17:25</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44380.5120949074</v>
       </c>
       <c r="I462" t="n">
         <v>0</v>
@@ -34485,10 +33579,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:16:44</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44380.51162037037</v>
       </c>
       <c r="I463" t="n">
         <v>5</v>
@@ -34556,10 +33648,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:16:44</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44380.51162037037</v>
       </c>
       <c r="I464" t="n">
         <v>2</v>
@@ -34627,10 +33717,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:16:19</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44380.51133101852</v>
       </c>
       <c r="I465" t="n">
         <v>3</v>
@@ -34702,10 +33790,8 @@
           <t>4834390207</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:15:18</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44380.510625</v>
       </c>
       <c r="I466" t="n">
         <v>0</v>
@@ -34781,10 +33867,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:14:45</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44380.51024305556</v>
       </c>
       <c r="I467" t="n">
         <v>0</v>
@@ -34860,10 +33944,8 @@
           <t>4834378911</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:14:40</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44380.51018518519</v>
       </c>
       <c r="I468" t="n">
         <v>1</v>
@@ -34931,10 +34013,8 @@
           <t>4834380874</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:14:33</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44380.51010416666</v>
       </c>
       <c r="I469" t="n">
         <v>22</v>
@@ -34998,10 +34078,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:14:31</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44380.51008101852</v>
       </c>
       <c r="I470" t="n">
         <v>5</v>
@@ -35077,10 +34155,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:13:38</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44380.50946759259</v>
       </c>
       <c r="I471" t="n">
         <v>1</v>
@@ -35156,10 +34232,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:13:35</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44380.50943287037</v>
       </c>
       <c r="I472" t="n">
         <v>6</v>
@@ -35227,10 +34301,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:13:02</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44380.50905092592</v>
       </c>
       <c r="I473" t="n">
         <v>0</v>
@@ -35313,10 +34385,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:13:01</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44380.50903935185</v>
       </c>
       <c r="I474" t="n">
         <v>17</v>
@@ -35384,10 +34454,8 @@
           <t>4834375221</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:12:53</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44380.50894675926</v>
       </c>
       <c r="I475" t="n">
         <v>27</v>
@@ -35463,10 +34531,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:12:52</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44380.50893518519</v>
       </c>
       <c r="I476" t="n">
         <v>1</v>
@@ -35538,10 +34604,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:12:39</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44380.50878472222</v>
       </c>
       <c r="I477" t="n">
         <v>1</v>
@@ -35617,10 +34681,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:12:32</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44380.5087037037</v>
       </c>
       <c r="I478" t="n">
         <v>9</v>
@@ -35688,10 +34750,8 @@
           <t>4834371002</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:12:30</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44380.50868055555</v>
       </c>
       <c r="I479" t="n">
         <v>0</v>
@@ -35761,10 +34821,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:12:20</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44380.50856481482</v>
       </c>
       <c r="I480" t="n">
         <v>3</v>
@@ -35828,10 +34886,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:12:12</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44380.50847222222</v>
       </c>
       <c r="I481" t="n">
         <v>6</v>
@@ -35907,10 +34963,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:12:04</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44380.50837962963</v>
       </c>
       <c r="I482" t="n">
         <v>1</v>
@@ -35982,10 +35036,8 @@
           <t>4834363455</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:12:03</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44380.50836805555</v>
       </c>
       <c r="I483" t="n">
         <v>1</v>
@@ -36057,10 +35109,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:11:58</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44380.50831018519</v>
       </c>
       <c r="I484" t="n">
         <v>4</v>
@@ -36132,10 +35182,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:11:56</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44380.50828703704</v>
       </c>
       <c r="I485" t="n">
         <v>3</v>
@@ -36211,10 +35259,8 @@
           <t>4834329830</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:11:45</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44380.50815972222</v>
       </c>
       <c r="I486" t="n">
         <v>2</v>
@@ -36294,10 +35340,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:11:44</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44380.50814814815</v>
       </c>
       <c r="I487" t="n">
         <v>1</v>
@@ -36361,10 +35405,8 @@
           <t>4834362750</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:11:42</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44380.508125</v>
       </c>
       <c r="I488" t="n">
         <v>7</v>
@@ -36432,10 +35474,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:11:34</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44380.50803240741</v>
       </c>
       <c r="I489" t="n">
         <v>1</v>
@@ -36504,10 +35544,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:11:29</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44380.50797453704</v>
       </c>
       <c r="I490" t="n">
         <v>1</v>
@@ -36579,10 +35617,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:11:19</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44380.5078587963</v>
       </c>
       <c r="I491" t="n">
         <v>4</v>
@@ -36650,10 +35686,8 @@
           <t>4834354075</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:10:56</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44380.50759259259</v>
       </c>
       <c r="I492" t="n">
         <v>0</v>
@@ -36723,10 +35757,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:10:39</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44380.50739583333</v>
       </c>
       <c r="I493" t="n">
         <v>1</v>
@@ -36794,10 +35826,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:10:23</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44380.50721064815</v>
       </c>
       <c r="I494" t="n">
         <v>5</v>
@@ -36859,10 +35889,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:09:51</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44380.50684027778</v>
       </c>
       <c r="I495" t="n">
         <v>1</v>
@@ -36926,10 +35954,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:09:45</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44380.50677083333</v>
       </c>
       <c r="I496" t="n">
         <v>2</v>
@@ -36993,10 +36019,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:09:18</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44380.50645833334</v>
       </c>
       <c r="I497" t="n">
         <v>2</v>
@@ -37064,10 +36088,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:09:11</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44380.50637731481</v>
       </c>
       <c r="I498" t="n">
         <v>2</v>
@@ -37135,10 +36157,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:09:06</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44380.50631944444</v>
       </c>
       <c r="I499" t="n">
         <v>16</v>
@@ -37214,10 +36234,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:08:56</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44380.50620370371</v>
       </c>
       <c r="I500" t="n">
         <v>28</v>
@@ -37294,10 +36312,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:08:35</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44380.50596064814</v>
       </c>
       <c r="I501" t="n">
         <v>6</v>
@@ -37357,10 +36373,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:08:27</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44380.50586805555</v>
       </c>
       <c r="I502" t="n">
         <v>3</v>
@@ -37428,10 +36442,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:08:17</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44380.50575231481</v>
       </c>
       <c r="I503" t="n">
         <v>406</v>
@@ -37507,10 +36519,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:07:26</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44380.50516203704</v>
       </c>
       <c r="I504" t="n">
         <v>271</v>
@@ -37582,10 +36592,8 @@
           <t>4834329830</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:07:11</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44380.50498842593</v>
       </c>
       <c r="I505" t="n">
         <v>66</v>
@@ -37661,10 +36669,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:06:53</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44380.50478009259</v>
       </c>
       <c r="I506" t="n">
         <v>1</v>
@@ -37736,10 +36742,8 @@
           <t>4834331929</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:06:36</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44380.50458333334</v>
       </c>
       <c r="I507" t="n">
         <v>0</v>
@@ -37803,10 +36807,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:06:34</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44380.50456018518</v>
       </c>
       <c r="I508" t="n">
         <v>1</v>
@@ -37878,10 +36880,8 @@
           <t>4834331612</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:06:27</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44380.50447916667</v>
       </c>
       <c r="I509" t="n">
         <v>0</v>
@@ -37945,10 +36945,8 @@
           <t>4834324716</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:06:05</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44380.50422453704</v>
       </c>
       <c r="I510" t="n">
         <v>40</v>
@@ -38020,10 +37018,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:05:51</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44380.5040625</v>
       </c>
       <c r="I511" t="n">
         <v>3</v>
@@ -38095,10 +37091,8 @@
           <t>4834330007</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:05:43</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44380.5039699074</v>
       </c>
       <c r="I512" t="n">
         <v>0</v>
@@ -38170,10 +37164,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:05:35</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44380.50387731481</v>
       </c>
       <c r="I513" t="n">
         <v>3</v>
@@ -38245,10 +37237,8 @@
           <t>4834326357</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:05:31</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44380.50383101852</v>
       </c>
       <c r="I514" t="n">
         <v>7</v>
@@ -38320,10 +37310,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:05:23</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44380.50373842593</v>
       </c>
       <c r="I515" t="n">
         <v>101</v>
@@ -38410,10 +37398,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:05:14</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44380.50363425926</v>
       </c>
       <c r="I516" t="n">
         <v>7</v>
@@ -38485,10 +37471,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:05:12</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44380.50361111111</v>
       </c>
       <c r="I517" t="n">
         <v>1</v>
@@ -38562,10 +37546,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:05:05</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44380.5035300926</v>
       </c>
       <c r="I518" t="n">
         <v>333</v>
@@ -38629,10 +37611,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:05:02</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44380.50349537037</v>
       </c>
       <c r="I519" t="n">
         <v>1</v>
@@ -38720,10 +37700,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:05:00</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44380.50347222222</v>
       </c>
       <c r="I520" t="n">
         <v>8</v>
@@ -38795,10 +37773,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:04:41</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44380.50325231482</v>
       </c>
       <c r="I521" t="n">
         <v>7</v>
@@ -38866,10 +37842,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:04:17</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44380.50297453703</v>
       </c>
       <c r="I522" t="n">
         <v>0</v>
@@ -38930,10 +37904,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:04:15</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44380.50295138889</v>
       </c>
       <c r="I523" t="n">
         <v>694</v>
@@ -39005,10 +37977,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:04:11</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44380.5029050926</v>
       </c>
       <c r="I524" t="n">
         <v>1</v>
@@ -39086,10 +38056,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:04:01</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44380.50278935185</v>
       </c>
       <c r="I525" t="n">
         <v>1</v>
@@ -39165,10 +38133,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:03:34</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44380.50247685185</v>
       </c>
       <c r="I526" t="n">
         <v>1</v>
@@ -39236,10 +38202,8 @@
           <t>4834311948</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:03:29</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44380.50241898148</v>
       </c>
       <c r="I527" t="n">
         <v>40</v>
@@ -39299,10 +38263,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:03:21</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44380.50232638889</v>
       </c>
       <c r="I528" t="n">
         <v>1311</v>
@@ -39374,10 +38336,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:03:20</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44380.50231481482</v>
       </c>
       <c r="I529" t="n">
         <v>2</v>
@@ -39453,10 +38413,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:03:15</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44380.50225694444</v>
       </c>
       <c r="I530" t="n">
         <v>0</v>
@@ -39528,10 +38486,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:03:14</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44380.50224537037</v>
       </c>
       <c r="I531" t="n">
         <v>1</v>
@@ -39595,10 +38551,8 @@
           <t>4834304032</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:03:09</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44380.5021875</v>
       </c>
       <c r="I532" t="n">
         <v>0</v>
@@ -39679,10 +38633,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:03:08</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44380.50217592593</v>
       </c>
       <c r="I533" t="n">
         <v>2</v>
@@ -39765,10 +38717,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:03:01</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44380.50209490741</v>
       </c>
       <c r="I534" t="n">
         <v>0</v>
@@ -39844,10 +38794,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:02:47</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44380.50193287037</v>
       </c>
       <c r="I535" t="n">
         <v>1</v>
@@ -39923,10 +38871,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:02:41</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44380.50186342592</v>
       </c>
       <c r="I536" t="n">
         <v>0</v>
@@ -40002,10 +38948,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:02:29</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44380.50172453704</v>
       </c>
       <c r="I537" t="n">
         <v>5</v>
@@ -40069,10 +39013,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:02:27</t>
-        </is>
+      <c r="H538" s="1" t="n">
+        <v>44380.50170138889</v>
       </c>
       <c r="I538" t="n">
         <v>18</v>
@@ -40144,10 +39086,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:02:21</t>
-        </is>
+      <c r="H539" s="1" t="n">
+        <v>44380.50163194445</v>
       </c>
       <c r="I539" t="n">
         <v>6</v>
@@ -40215,10 +39155,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:02:10</t>
-        </is>
+      <c r="H540" s="1" t="n">
+        <v>44380.50150462963</v>
       </c>
       <c r="I540" t="n">
         <v>1</v>
@@ -40294,10 +39232,8 @@
           <t>4834297230</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:01:59</t>
-        </is>
+      <c r="H541" s="1" t="n">
+        <v>44380.50137731482</v>
       </c>
       <c r="I541" t="n">
         <v>0</v>
@@ -40361,10 +39297,8 @@
           <t>4834298230</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:01:49</t>
-        </is>
+      <c r="H542" s="1" t="n">
+        <v>44380.50126157407</v>
       </c>
       <c r="I542" t="n">
         <v>0</v>
@@ -40437,10 +39371,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:01:47</t>
-        </is>
+      <c r="H543" s="1" t="n">
+        <v>44380.50123842592</v>
       </c>
       <c r="I543" t="n">
         <v>1</v>
@@ -40500,10 +39432,8 @@
           <t>4834298004</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:01:43</t>
-        </is>
+      <c r="H544" s="1" t="n">
+        <v>44380.50119212963</v>
       </c>
       <c r="I544" t="n">
         <v>0</v>
@@ -40580,10 +39510,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:01:40</t>
-        </is>
+      <c r="H545" s="1" t="n">
+        <v>44380.50115740741</v>
       </c>
       <c r="I545" t="n">
         <v>0</v>
@@ -40643,10 +39571,8 @@
           <t>4834300874</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:01:37</t>
-        </is>
+      <c r="H546" s="1" t="n">
+        <v>44380.50112268519</v>
       </c>
       <c r="I546" t="n">
         <v>0</v>
@@ -40724,10 +39650,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:01:31</t>
-        </is>
+      <c r="H547" s="1" t="n">
+        <v>44380.50105324074</v>
       </c>
       <c r="I547" t="n">
         <v>0</v>
@@ -40788,10 +39712,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:01:26</t>
-        </is>
+      <c r="H548" s="1" t="n">
+        <v>44380.50099537037</v>
       </c>
       <c r="I548" t="n">
         <v>1</v>
@@ -40867,10 +39789,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:01:26</t>
-        </is>
+      <c r="H549" s="1" t="n">
+        <v>44380.50099537037</v>
       </c>
       <c r="I549" t="n">
         <v>1</v>
@@ -40930,10 +39850,8 @@
           <t>4834297230</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:01:24</t>
-        </is>
+      <c r="H550" s="1" t="n">
+        <v>44380.50097222222</v>
       </c>
       <c r="I550" t="n">
         <v>0</v>
@@ -41009,10 +39927,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:01:20</t>
-        </is>
+      <c r="H551" s="1" t="n">
+        <v>44380.50092592592</v>
       </c>
       <c r="I551" t="n">
         <v>2</v>
@@ -41072,10 +39988,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:01:20</t>
-        </is>
+      <c r="H552" s="1" t="n">
+        <v>44380.50092592592</v>
       </c>
       <c r="I552" t="n">
         <v>5</v>
@@ -41135,10 +40049,8 @@
           <t>4834300159</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:01:17</t>
-        </is>
+      <c r="H553" s="1" t="n">
+        <v>44380.5008912037</v>
       </c>
       <c r="I553" t="n">
         <v>0</v>
@@ -41202,10 +40114,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:01:14</t>
-        </is>
+      <c r="H554" s="1" t="n">
+        <v>44380.50085648148</v>
       </c>
       <c r="I554" t="n">
         <v>1</v>
@@ -41281,10 +40191,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:01:10</t>
-        </is>
+      <c r="H555" s="1" t="n">
+        <v>44380.50081018519</v>
       </c>
       <c r="I555" t="n">
         <v>1</v>
@@ -41352,10 +40260,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:01:07</t>
-        </is>
+      <c r="H556" s="1" t="n">
+        <v>44380.50077546296</v>
       </c>
       <c r="I556" t="n">
         <v>18</v>
@@ -41427,10 +40333,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:01:06</t>
-        </is>
+      <c r="H557" s="1" t="n">
+        <v>44380.50076388889</v>
       </c>
       <c r="I557" t="n">
         <v>52</v>
@@ -41506,10 +40410,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:01:05</t>
-        </is>
+      <c r="H558" s="1" t="n">
+        <v>44380.50075231482</v>
       </c>
       <c r="I558" t="n">
         <v>1</v>
@@ -41585,10 +40487,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:00:59</t>
-        </is>
+      <c r="H559" s="1" t="n">
+        <v>44380.50068287037</v>
       </c>
       <c r="I559" t="n">
         <v>1</v>
@@ -41652,10 +40552,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:00:57</t>
-        </is>
+      <c r="H560" s="1" t="n">
+        <v>44380.50065972222</v>
       </c>
       <c r="I560" t="n">
         <v>4</v>
@@ -41719,10 +40617,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:00:56</t>
-        </is>
+      <c r="H561" s="1" t="n">
+        <v>44380.50064814815</v>
       </c>
       <c r="I561" t="n">
         <v>1</v>
@@ -41786,10 +40682,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:00:48</t>
-        </is>
+      <c r="H562" s="1" t="n">
+        <v>44380.50055555555</v>
       </c>
       <c r="I562" t="n">
         <v>0</v>
@@ -41849,10 +40743,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:00:43</t>
-        </is>
+      <c r="H563" s="1" t="n">
+        <v>44380.50049768519</v>
       </c>
       <c r="I563" t="n">
         <v>792</v>
@@ -41926,10 +40818,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:00:42</t>
-        </is>
+      <c r="H564" s="1" t="n">
+        <v>44380.50048611111</v>
       </c>
       <c r="I564" t="n">
         <v>141</v>
@@ -42001,10 +40891,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:00:40</t>
-        </is>
+      <c r="H565" s="1" t="n">
+        <v>44380.50046296296</v>
       </c>
       <c r="I565" t="n">
         <v>4</v>
@@ -42068,10 +40956,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:00:33</t>
-        </is>
+      <c r="H566" s="1" t="n">
+        <v>44380.50038194445</v>
       </c>
       <c r="I566" t="n">
         <v>0</v>
@@ -42139,10 +41025,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>2021-07-03 12:00:30</t>
-        </is>
+      <c r="H567" s="1" t="n">
+        <v>44380.50034722222</v>
       </c>
       <c r="I567" t="n">
         <v>4</v>
